--- a/output/downloads/gxb/工信部.xlsx
+++ b/output/downloads/gxb/工信部.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>《道路机动车辆生产企业及产品》（第396批）、《享受车船税减免优惠的节约能源 使用新能源汽车车型目录》（第七十五批）、《减免车辆购置税的新能源汽车车型目录》（第十九批）</t>
+          <t>中华人民共和国工业和信息化部公告2025年第18号</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,48 +503,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/gg/art/2025/art_96b034a00c7f4f3bbd9dcbaba1a3395c.html</t>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/gg/art/2025/art_d6e0faa4921a42069acd1f299bea618b.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\gxb\2025-07-15_《道路机动车辆生产企业及产品》（第396批）、《享受车船税减免优惠的节约能源 使用新能源汽车车型目录》（第七十五批）、《减免车辆购置税的新能源汽车车型目录》（第十九批）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-08-29_中华人民共和国工业和信息化部公告2025年第18号.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['1.道路机动车辆生产企业及产品（第396批）.doc', '2.享受车船税减免优惠的节约能源 使用新能源汽车车型目录（第七十五批）.doc', '3.减免车辆购置税的新能源汽车车型目录（第十九批）.doc']</t>
+          <t>['第一届工业和信息化部科技服务业标准化技术委员会委员名单']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>工信部-2025-07-15-《道路机动车辆生产企业及产品》（第396批）、《享受车船税减免优惠的节约能源 使用新能源汽车车型目录》（第七十五批）、《减免车辆购置税的新能源汽车车型目录》（第十九批）</t>
+          <t>工信部-2025-08-29-中华人民共和国工业和信息化部公告2025年第18号</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>中华人民共和国工业和信息化部公告2025年第13号</t>
+          <t>工业和信息化部关于优化业务准入促进卫星通信产业发展的指导意见</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -554,48 +554,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/gg/art/2025/art_fb9e616fba184b128761a7a644ee8b68.html</t>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/yj/art/2025/art_84617e8497d84a3d8b8b3ef847f648d2.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\gxb\2025-07-08_中华人民共和国工业和信息化部公告2025年第13号.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-08-27_工业和信息化部关于优化业务准入促进卫星通信产业发展的指导意见.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['406项行业标准编号、名称、主要内容等一览表', '10项行业标准外文版名称及主要内容等一览表', '行业标准出版情况']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>工信部-2025-07-08-中华人民共和国工业和信息化部公告2025年第13号</t>
+          <t>工信部-2025-08-27-工业和信息化部关于优化业务准入促进卫星通信产业发展的指导意见</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>六部门关于组织开展2025年度国家绿色数据中心推荐工作的通知</t>
+          <t>两部门关于开展食品加工领域生物制造创新技术应用方向征集工作的通知</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -605,48 +605,48 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_d7bfc06fa7c24c41a176fa02919a830d.html</t>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_102e0b5f143b4b0abe544de74b130b8f.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\gxb\2025-07-07_六部门关于组织开展2025年度国家绿色数据中心推荐工作的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-08-19_两部门关于开展食品加工领域生物制造创新技术应用方向征集工作的通知.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['2025年度国家绿色数据中心评价指标体系.doc', '2025年度国家绿色数据中心自评价报告.wps', '2025年度国家绿色数据中心推荐汇总表.wps']</t>
+          <t>['附件：食品加工领域生物制造创新技术应用方向推荐表.docx']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>工信部-2025-07-07-六部门关于组织开展2025年度国家绿色数据中心推荐工作的通知</t>
+          <t>工信部-2025-08-19-两部门关于开展食品加工领域生物制造创新技术应用方向征集工作的通知</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>工业和信息化部办公厅关于印发《安全应急装备产业分类指导目录（2025版）》的通知</t>
+          <t>三部门关于开展2025年度享受增值税加计抵减政策的工业母机企业清单制定工作的通知</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,41 +656,194 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_b9c172d5ea734904a91a335d44659795.html</t>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_94982b35da074a9abdfee7daae6a979c.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-08-15_三部门关于开展2025年度享受增值税加计抵减政策的工业母机企业清单制定工作的通知.zip</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['享受增值税加计抵减政策的工业母机企业提交证明材料清单.wps', '企业重大变化情况表.wps']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>工信部-2025-08-15-三部门关于开展2025年度享受增值税加计抵减政策的工业母机企业清单制定工作的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>两部门关于印发《电子信息制造业2025－2026年稳增长行动方案》的通知</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>工信部</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_e8e780ef457343699aaa9943a8a158b9.html</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\gxb\2025-07-18_工业和信息化部办公厅关于印发《安全应急装备产业分类指导目录（2025版）》的通知.zip</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-09-04_两部门关于印发《电子信息制造业2025－2026年稳增长行动方案》的通知.zip</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>工信部-2025-07-18-工业和信息化部办公厅关于印发《安全应急装备产业分类指导目录（2025版）》的通知</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>工信部-2025-09-04-两部门关于印发《电子信息制造业2025－2026年稳增长行动方案》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>工业和信息化部办公厅关于公布首批质量管理能力高等级企业名单的通知</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>工信部</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_f5348236b145443b84432867d5ef4f05.html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-09-01_工业和信息化部办公厅关于公布首批质量管理能力高等级企业名单的通知.zip</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>工信部-2025-09-01-工业和信息化部办公厅关于公布首批质量管理能力高等级企业名单的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>两部门关于推进“宽带林草”建设的通知</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>工信部</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.miit.gov.cn/zwgk/zcwj/wjfb/tz/art/2025/art_8afb8e44604a43e9b215db0efb7ae839.html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\gxb\2025-09-01_两部门关于推进“宽带林草”建设的通知.zip</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>工信部-2025-09-01-两部门关于推进“宽带林草”建设的通知</t>
         </is>
       </c>
     </row>
